--- a/ItemsRealizados.xlsx
+++ b/ItemsRealizados.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$4:$F$52</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t>login</t>
   </si>
@@ -44,9 +47,6 @@
     <t>Administrador: crear cliente</t>
   </si>
   <si>
-    <t>Administrador: crear locales</t>
-  </si>
-  <si>
     <t>Encargado:  Puede modificar los estados de los empleados.</t>
   </si>
   <si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>fileuploader</t>
+  </si>
+  <si>
+    <t>Administrador: crear locales/sucursales</t>
+  </si>
+  <si>
+    <t>agregar bdd a pedido fecha hs ysucursal y empleado (si fue auto gestion palabra noaplica)</t>
+  </si>
+  <si>
+    <t>crear tabla con det login fecha y hs y usuario</t>
   </si>
 </sst>
 </file>
@@ -268,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -411,10 +420,96 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -424,95 +519,32 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -530,10 +562,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -542,12 +573,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,21 +581,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,667 +943,697 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="10">
+        <f>_xlfn.IFS(D5="sehizo",1,D5="noecho",3,D5="noaplica",2)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" ref="E6:E51" si="0">_xlfn.IFS(D6="sehizo",1,D6="noecho",3,D6="noaplica",2)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="3:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C28" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C29" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="3:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="13">
-        <f>_xlfn.IFS(D5="sehizo",1,D5="noecho",3,D5="noaplica",2)</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="3:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" ref="E6:E51" si="0">_xlfn.IFS(D6="sehizo",1,D6="noecho",3,D6="noaplica",2)</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="3:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="3:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="11" t="s">
+    </row>
+    <row r="30" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="3:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="C32" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="3:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="3:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="3:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="3:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="3:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="3:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="12" t="s">
+      <c r="D32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C33" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C34" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C35" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C36" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C38" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C39" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C40" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C41" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C42" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C43" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C28" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="12" t="s">
+      <c r="D43" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C44" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C45" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C46" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="3:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="C32" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C33" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C34" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C35" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C38" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C40" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C43" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C44" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C45" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C46" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F46" s="5"/>
+      <c r="D46" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
-      <c r="C47" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F47" s="5"/>
+      <c r="C47" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F48" s="5"/>
+      <c r="D48" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F49" s="20"/>
+      <c r="C49" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="24">
+      <c r="D52" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="15">
         <f t="shared" ref="E52" si="1">_xlfn.IFS(D52="sehizo",1,D52="noecho",3,D52="noaplica",2)</f>
         <v>3</v>
       </c>
-      <c r="F52" s="25"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C53" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="8">
+        <f t="shared" ref="E53:E54" si="2">_xlfn.IFS(D53="sehizo",1,D53="noecho",3,D53="noaplica",2)</f>
+        <v>3</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F54" s="18"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="1"/>
     </row>
     <row r="1048573" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1048573" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1048574" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1048574" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1048575" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1048575" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E5:E52">
+  <autoFilter ref="C4:F52"/>
+  <conditionalFormatting sqref="E5:E54">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -1588,7 +1649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D54">
       <formula1>$F$1048573:$F$1048576</formula1>
     </dataValidation>
   </dataValidations>

--- a/ItemsRealizados.xlsx
+++ b/ItemsRealizados.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$4:$F$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$4:$F$54</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>login</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>crear tabla con det login fecha y hs y usuario</t>
+  </si>
+  <si>
+    <t>Quien</t>
   </si>
 </sst>
 </file>
@@ -927,10 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B3:N1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,8 +945,11 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -958,7 +965,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C5" s="20" t="s">
         <v>2</v>
       </c>
@@ -971,7 +978,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C6" s="21" t="s">
         <v>3</v>
       </c>
@@ -984,7 +991,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C7" s="21" t="s">
         <v>4</v>
       </c>
@@ -997,7 +1004,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="C8" s="21" t="s">
         <v>5</v>
       </c>
@@ -1010,7 +1017,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="21" t="s">
         <v>55</v>
       </c>
@@ -1023,7 +1030,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="3:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="C10" s="21" t="s">
         <v>30</v>
       </c>
@@ -1036,7 +1043,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C11" s="22" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1056,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="22" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1069,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C13" s="22" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1082,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="22" t="s">
         <v>9</v>
       </c>
@@ -1088,7 +1095,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="22" t="s">
         <v>23</v>
       </c>
@@ -1101,7 +1108,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C16" s="22" t="s">
         <v>25</v>
       </c>
@@ -1114,7 +1121,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C17" s="22" t="s">
         <v>26</v>
       </c>
@@ -1127,7 +1134,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C18" s="22" t="s">
         <v>27</v>
       </c>
@@ -1153,7 +1160,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C20" s="22" t="s">
         <v>29</v>
       </c>
@@ -1166,7 +1173,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="C21" s="21" t="s">
         <v>24</v>
       </c>
@@ -1194,7 +1201,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C23" s="21" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1214,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C24" s="21" t="s">
         <v>11</v>
       </c>
@@ -1233,7 +1240,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C26" s="21" t="s">
         <v>13</v>
       </c>
@@ -1246,7 +1253,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C27" s="22" t="s">
         <v>14</v>
       </c>
@@ -1259,7 +1266,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="C28" s="22" t="s">
         <v>51</v>
       </c>
@@ -1272,7 +1279,7 @@
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="C29" s="22" t="s">
         <v>18</v>
       </c>
@@ -1300,7 +1307,7 @@
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C31" s="22" t="s">
         <v>20</v>
       </c>
@@ -1456,7 +1463,7 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="C43" s="22" t="s">
         <v>15</v>
       </c>
@@ -1508,7 +1515,7 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="22" t="s">
         <v>32</v>
@@ -1522,7 +1529,7 @@
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C48" s="21" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1542,7 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C49" s="23" t="s">
         <v>43</v>
       </c>
@@ -1632,7 +1639,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C4:F52"/>
+  <autoFilter ref="C4:F54">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="noecho"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="E5:E54">
     <cfRule type="colorScale" priority="5">
       <colorScale>

--- a/ItemsRealizados.xlsx
+++ b/ItemsRealizados.xlsx
@@ -565,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -605,6 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,8 +934,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B3:N1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,16 +1083,16 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -1121,7 +1122,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C17" s="22" t="s">
         <v>26</v>
       </c>
@@ -1134,7 +1135,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C18" s="22" t="s">
         <v>27</v>
       </c>
@@ -1147,20 +1148,20 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C19" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C20" s="22" t="s">
         <v>29</v>
       </c>
@@ -1173,7 +1174,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="3:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="C21" s="21" t="s">
         <v>24</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="21" t="s">
         <v>22</v>
       </c>
@@ -1201,7 +1202,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C23" s="21" t="s">
         <v>10</v>
       </c>
@@ -1214,7 +1215,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C24" s="21" t="s">
         <v>11</v>
       </c>
@@ -1227,20 +1228,20 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C25" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C26" s="21" t="s">
         <v>13</v>
       </c>
@@ -1253,7 +1254,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C27" s="22" t="s">
         <v>14</v>
       </c>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="3:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="C28" s="22" t="s">
         <v>51</v>
       </c>
@@ -1279,7 +1280,7 @@
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="3:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="C29" s="22" t="s">
         <v>18</v>
       </c>
@@ -1294,20 +1295,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>45</v>
+      <c r="D30" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="E30" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="3:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C31" s="22" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1321,7 @@
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="3:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8" ht="105" x14ac:dyDescent="0.25">
       <c r="C32" s="22" t="s">
         <v>31</v>
       </c>
@@ -1332,8 +1333,9 @@
         <v>3</v>
       </c>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="C33" s="21" t="s">
         <v>33</v>
       </c>
@@ -1346,7 +1348,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C34" s="21" t="s">
         <v>34</v>
       </c>
@@ -1358,8 +1360,9 @@
         <v>3</v>
       </c>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="C35" s="22" t="s">
         <v>35</v>
       </c>
@@ -1372,7 +1375,7 @@
       </c>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C36" s="21" t="s">
         <v>36</v>
       </c>
@@ -1385,7 +1388,7 @@
       </c>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C37" s="21" t="s">
         <v>37</v>
       </c>
@@ -1398,7 +1401,7 @@
       </c>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C38" s="21" t="s">
         <v>38</v>
       </c>
@@ -1411,7 +1414,7 @@
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C39" s="21" t="s">
         <v>39</v>
       </c>
@@ -1424,7 +1427,7 @@
       </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="21" t="s">
         <v>40</v>
       </c>
@@ -1437,7 +1440,7 @@
       </c>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C41" s="21" t="s">
         <v>41</v>
       </c>
@@ -1450,7 +1453,7 @@
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C42" s="21" t="s">
         <v>42</v>
       </c>
@@ -1463,7 +1466,7 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="C43" s="22" t="s">
         <v>15</v>
       </c>
@@ -1476,7 +1479,7 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C44" s="22" t="s">
         <v>16</v>
       </c>
@@ -1489,7 +1492,7 @@
       </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C45" s="22" t="s">
         <v>17</v>
       </c>
@@ -1502,7 +1505,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="C46" s="21" t="s">
         <v>21</v>
       </c>
@@ -1515,7 +1518,7 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="2:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="22" t="s">
         <v>32</v>
@@ -1529,7 +1532,7 @@
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C48" s="21" t="s">
         <v>0</v>
       </c>
@@ -1568,16 +1571,16 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C51" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>45</v>
+      <c r="D51" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="E51" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" s="4"/>
     </row>
@@ -1607,16 +1610,16 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="3:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:6" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="24" t="s">
         <v>57</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E54" s="17">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54" s="18"/>
     </row>
